--- a/biology/Microbiologie/Norman_Edwin_Gibbons/Norman_Edwin_Gibbons.xlsx
+++ b/biology/Microbiologie/Norman_Edwin_Gibbons/Norman_Edwin_Gibbons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norman Edwin Gibbons, né en 1906 à Niagara Falls (Ontario) et mort le 10 décembre 1977 à Lakeland (Floride), est un microbiologiste et bactériologiste canadien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norman Edwin Gibbons, né en 1906 à Niagara Falls (Ontario) et mort le 10 décembre 1977 à Lakeland (Floride), est un microbiologiste et bactériologiste canadien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) N.E. Gibbons &amp; R.G.E. Murray, "Proposals Concerning the Higher Taxa of Bacteria", International Journal of Systematic Bacteriology, Vol.28, No.1, January 1978, p. 1-6. DOI 10.1099/00207713-28-1-1
 (en) N.E. Gibbons &amp; R.G.E. Murray, "Validation of Cyanobacteriales Stanier in Gibbons and Murray 1978 as a New Order of the Kingdom Procaryotae Murray 1968, and of the Use of Neuter Plural Endings for Photobacteria and Scotobacteria classes nov. Gibbons and Murray 1978 : Request for an Opinion", International Journal of Systematic Bacteriology, Vol.28, No.2, April 1978, p. 332-333. DOI 10.1099/00207713-28-2-332</t>
